--- a/medicine/Psychotrope/Regent_(cépage)/Regent_(cépage).xlsx
+++ b/medicine/Psychotrope/Regent_(cépage)/Regent_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regent_(c%C3%A9page)</t>
+          <t>Regent_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Regent N[N 1] est un nouveau cépage noir, résistant aux maladies cryptogamiques (mildiou et oïdium).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regent_(c%C3%A9page)</t>
+          <t>Regent_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1967 par le croisement des variétés Diana et Chambourcin, par le Prof. Dr. Gerhardt Alleweldt à l'Institut de viticulture de Geilweilerhof (Palatinat, Allemagne), ce cépage a réussi tous les tests techniques et organoleptiques effectués, et présente un haut potentiel de qualité.
 Depuis 1996, les autorités allemandes l'ont classé à égalité avec les cépages de Vitis vinifera traditionnels et, dès lors, officiellement reconnu apte à produire des Qualitätswein (vin de qualité, d'appellation d'origine contrôlée en Allemagne).
 Le Regent est cultivé dans de nombreux vignobles européens. On peut en obtenir un vin sec et léger, cultivé dans des conditions climatiques sévères de l'Europe du nord. La couleur est rouge clair intense car ce cépage est teinturier.
-En Belgique, il est autorisé pour les AOCs Côtes de Sambre et Meuse [1], Hageland [2], Haspengouw [3] et Heuvelland [4]. On le retrouve dans des assemblages avec du Dornfelder (autorisé dans les AOCs flamandes), du Rondo ou du Cabertin.
+En Belgique, il est autorisé pour les AOCs Côtes de Sambre et Meuse , Hageland , Haspengouw  et Heuvelland . On le retrouve dans des assemblages avec du Dornfelder (autorisé dans les AOCs flamandes), du Rondo ou du Cabertin.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regent_(c%C3%A9page)</t>
+          <t>Regent_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspect : grappes moyennes aux baies moyennes, grains bleus serrés, jus rougeâtre, feuilles peu découpées.
 Vin rosé, de couleur rouge clair car ce cépage est teinturier, après cuvage d'une nuit et éraflage total de la grappe.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regent_(c%C3%A9page)</t>
+          <t>Regent_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fiche « Regent » dans la base de l'Institut de viticulture de Geilweilerhof (de)</t>
         </is>
